--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B119EA2C-27F4-4B46-B939-442B23DD8530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1156D0-ED73-40AC-BA5E-05346A336453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="4" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Advent</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Prospector</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>SLOTS</t>
   </si>
   <si>
-    <t xml:space="preserve"> STL</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -262,6 +256,48 @@
   </si>
   <si>
     <t>Allows extraction of research from asteroids</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>Huge Radar</t>
+  </si>
+  <si>
+    <t>Reduce science activation time by 10%</t>
+  </si>
+  <si>
+    <t>3 industrial</t>
+  </si>
+  <si>
+    <t>RE1</t>
+  </si>
+  <si>
+    <t>Radar Expansion MK1</t>
+  </si>
+  <si>
+    <t>Small increase to radar range</t>
+  </si>
+  <si>
+    <t>Deep Space Radar</t>
+  </si>
+  <si>
+    <t>DSR1</t>
+  </si>
+  <si>
+    <t>Huge increase to radar range</t>
+  </si>
+  <si>
+    <t>Used primarily for fuel</t>
+  </si>
+  <si>
+    <t>Used as a base for modules</t>
   </si>
 </sst>
 </file>
@@ -372,7 +408,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -395,6 +431,9 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -409,14 +448,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6323CC66-AB77-4F54-8D43-381DEE6CE2B1}" name="Table14" displayName="Table14" ref="B4:L9" totalsRowShown="0">
-  <autoFilter ref="B4:L9" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6323CC66-AB77-4F54-8D43-381DEE6CE2B1}" name="Table14" displayName="Table14" ref="B4:N10" totalsRowShown="0">
+  <autoFilter ref="B4:N10" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{D9C10528-99F6-4028-85DF-03470D3CA5CC}" name="Desc" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4770588D-5EDD-4D5C-B0F0-3F6FEB342485}" name="Unique" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{AD75260C-44B9-43EB-BFDA-A57C787F7698}" name="Cargo Space (t)"/>
     <tableColumn id="4" xr3:uid="{A84D8404-6D1C-458D-B4B5-B3A7DBB24610}" name="Mass (t)"/>
     <tableColumn id="8" xr3:uid="{1496CFD5-444D-4CDC-B6A6-555F138A066F}" name="Fuel Tank"/>
+    <tableColumn id="14" xr3:uid="{F94DB760-A5A8-41A0-BF9E-BD0EEF219BBD}" name="Radar"/>
     <tableColumn id="9" xr3:uid="{6D0BA0FA-8CAD-4AD3-B980-42D62AB120DB}" name="Column1" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{7E771186-A81D-464E-B389-3E3636203AD2}" name="Industrial"/>
     <tableColumn id="11" xr3:uid="{9376F4FB-E402-479C-B8ED-E66E0FFF6770}" name="Heavy Industrial"/>
@@ -441,8 +482,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:E13" totalsRowShown="0">
-  <autoFilter ref="B3:E13" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:E15" totalsRowShown="0">
+  <autoFilter ref="B3:E15" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{207EE6DC-D769-419D-8CBF-B74E16A244DB}" name="Name"/>
     <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="ID"/>
@@ -465,11 +506,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}" name="Table2" displayName="Table2" ref="B2:C6" totalsRowShown="0">
-  <autoFilter ref="B2:C6" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}" name="Table2" displayName="Table2" ref="B2:D6" totalsRowShown="0">
+  <autoFilter ref="B2:D6" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A57ED6D9-670E-43E5-9C8E-9F87CDB93B39}" name="Item ID"/>
     <tableColumn id="2" xr3:uid="{C52EF92B-EFA1-42B7-9701-E3B35C408577}" name="Display Name"/>
+    <tableColumn id="3" xr3:uid="{32901BEB-13DE-4D9A-9A0C-ECCA4063EF8A}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -772,41 +814,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E3E5C2-BC3A-4ABE-A5A7-23C0167AC7AC}">
-  <dimension ref="B3:L9"/>
+  <dimension ref="B3:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="H3" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="J3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
@@ -819,172 +864,231 @@
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
       </c>
       <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="5"/>
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>200</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>300</v>
       </c>
-      <c r="G5" s="6"/>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I5" s="6"/>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
         <v>300</v>
       </c>
-      <c r="F6">
+      <c r="G8">
         <v>100</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>120</v>
-      </c>
-      <c r="F7">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
+      <c r="I8" s="6"/>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
         <v>300</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>500</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="G9" s="6"/>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
+        <v>400</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -999,7 +1103,7 @@
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,10 +1118,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1028,12 +1132,12 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1052,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="B3:E13"/>
+  <dimension ref="B3:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,30 +1264,30 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1191,27 +1295,55 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1360,7 @@
   <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1371,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1247,34 +1379,34 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1287,43 +1419,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C0CDF1-A183-4345-9368-92E9EE269DA3}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1331,7 +1473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>27</v>
       </c>

--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1156D0-ED73-40AC-BA5E-05346A336453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF003A8C-721F-4C78-B957-71630376AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="4" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Adds more cargo space</t>
   </si>
   <si>
-    <t xml:space="preserve">Second Fuel Tank </t>
-  </si>
-  <si>
-    <t>Adds more fuel tank size</t>
-  </si>
-  <si>
     <t>Salvager MK1</t>
   </si>
   <si>
@@ -298,6 +292,9 @@
   </si>
   <si>
     <t>Used as a base for modules</t>
+  </si>
+  <si>
+    <t>FM1</t>
   </si>
 </sst>
 </file>
@@ -482,8 +479,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:E15" totalsRowShown="0">
-  <autoFilter ref="B3:E15" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:E14" totalsRowShown="0">
+  <autoFilter ref="B3:E14" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{207EE6DC-D769-419D-8CBF-B74E16A244DB}" name="Name"/>
     <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="ID"/>
@@ -841,7 +838,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="J3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -849,45 +846,45 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5">
@@ -919,11 +916,11 @@
     </row>
     <row r="6" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -954,11 +951,11 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -989,10 +986,10 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1020,11 +1017,11 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>300</v>
@@ -1055,13 +1052,13 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -1118,32 +1115,32 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1156,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="B3:E15"/>
+  <dimension ref="B3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1186,10 +1183,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1200,10 +1197,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1213,78 +1210,84 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>29</v>
+      <c r="B9" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>51</v>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>62</v>
+      <c r="B11" t="s">
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>64</v>
@@ -1292,30 +1295,30 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1323,27 +1326,13 @@
         <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1360,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1379,34 +1368,34 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C0CDF1-A183-4345-9368-92E9EE269DA3}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
@@ -1434,10 +1423,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1445,40 +1434,40 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF003A8C-721F-4C78-B957-71630376AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FB7157-E86C-4DE5-8425-96D0A3D9C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -295,6 +295,33 @@
   </si>
   <si>
     <t>FM1</t>
+  </si>
+  <si>
+    <t>Venigen Lens</t>
+  </si>
+  <si>
+    <t>VNL</t>
+  </si>
+  <si>
+    <t>Asteroid miners on this ship mine venigen faster</t>
+  </si>
+  <si>
+    <t>Extend the activation range of all science modules</t>
+  </si>
+  <si>
+    <t>Range Amp Science</t>
+  </si>
+  <si>
+    <t>Range Amp Industrial</t>
+  </si>
+  <si>
+    <t>RAI</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>Extend the activation range of all industrial modules</t>
   </si>
 </sst>
 </file>
@@ -479,8 +506,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:E14" totalsRowShown="0">
-  <autoFilter ref="B3:E14" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:E17" totalsRowShown="0">
+  <autoFilter ref="B3:E17" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{207EE6DC-D769-419D-8CBF-B74E16A244DB}" name="Name"/>
     <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="ID"/>
@@ -1153,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="B3:E14"/>
+  <dimension ref="B3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,6 +1360,48 @@
       </c>
       <c r="E14" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FB7157-E86C-4DE5-8425-96D0A3D9C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D8B95-43C7-4151-B513-645D2AAF843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -530,8 +530,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}" name="Table2" displayName="Table2" ref="B2:D6" totalsRowShown="0">
-  <autoFilter ref="B2:D6" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}" name="Table2" displayName="Table2" ref="B2:D7" totalsRowShown="0">
+  <autoFilter ref="B2:D7" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A57ED6D9-670E-43E5-9C8E-9F87CDB93B39}" name="Item ID"/>
     <tableColumn id="2" xr3:uid="{C52EF92B-EFA1-42B7-9701-E3B35C408577}" name="Display Name"/>
@@ -853,7 +853,7 @@
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1183,7 +1183,7 @@
   <dimension ref="B3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1418,7 @@
   <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1480,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D25:D26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D8B95-43C7-4151-B513-645D2AAF843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB83B59-35AA-4E4A-9529-3C6F81C5E911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -322,13 +322,40 @@
   </si>
   <si>
     <t>Extend the activation range of all industrial modules</t>
+  </si>
+  <si>
+    <t>Deep Space Salvager</t>
+  </si>
+  <si>
+    <t>DSS</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>Very long range salvager module</t>
+  </si>
+  <si>
+    <t>Deep Space Miner</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>Very long range single target miner</t>
+  </si>
+  <si>
+    <t>Split Miner MK1</t>
+  </si>
+  <si>
+    <t>Industrial modules have ruduced activation time which extends to surrounding ships.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,8 +379,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -428,6 +468,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,13 +548,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:E17" totalsRowShown="0">
-  <autoFilter ref="B3:E17" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:F19" totalsRowShown="0">
+  <autoFilter ref="B3:F19" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+  <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{207EE6DC-D769-419D-8CBF-B74E16A244DB}" name="Name"/>
     <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="ID"/>
     <tableColumn id="2" xr3:uid="{4770588D-5EDD-4D5C-B0F0-3F6FEB342485}" name="Slot Type"/>
     <tableColumn id="3" xr3:uid="{AD75260C-44B9-43EB-BFDA-A57C787F7698}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{A1D1644B-90B6-4111-BA4A-D7BB4677FB3D}" name="Implemented"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,15 +883,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E3E5C2-BC3A-4ABE-A5A7-23C0167AC7AC}">
   <dimension ref="B3:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1011,13 +1054,16 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="E8">
         <v>100</v>
       </c>
@@ -1029,7 +1075,7 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1180,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="B3:E17"/>
+  <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,9 +1238,10 @@
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
     <col min="5" max="5" width="77.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,8 +1254,11 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1221,8 +1271,9 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1235,8 +1286,9 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1249,8 +1301,9 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1263,8 +1316,9 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>49</v>
       </c>
@@ -1292,7 +1346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
@@ -1306,9 +1360,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -1320,7 +1374,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>67</v>
       </c>
@@ -1334,7 +1388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>77</v>
       </c>
@@ -1347,8 +1401,9 @@
       <c r="E13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>79</v>
       </c>
@@ -1362,7 +1417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>85</v>
       </c>
@@ -1376,7 +1431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>89</v>
       </c>
@@ -1402,6 +1457,34 @@
       </c>
       <c r="E17" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB83B59-35AA-4E4A-9529-3C6F81C5E911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA7093-76D0-49DA-8341-991B78D6E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -884,7 +884,7 @@
   <dimension ref="B3:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>0</v>

--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA7093-76D0-49DA-8341-991B78D6E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978B883F-426A-4BDC-89A5-C7085B8AA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Industrial modules have ruduced activation time which extends to surrounding ships.</t>
+  </si>
+  <si>
+    <t>SM2</t>
   </si>
 </sst>
 </file>
@@ -884,7 +887,7 @@
   <dimension ref="B3:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="6"/>
     </row>
@@ -1153,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>2</v>
@@ -1229,7 +1232,7 @@
   <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1326,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1365,7 +1368,7 @@
         <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>

--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978B883F-426A-4BDC-89A5-C7085B8AA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1395612-6539-40C2-80A0-4F8CC5CC988A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="3" r:id="rId1"/>
@@ -886,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E3E5C2-BC3A-4ABE-A5A7-23C0167AC7AC}">
   <dimension ref="B3:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -1231,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1334,6 +1334,7 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">

--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1395612-6539-40C2-80A0-4F8CC5CC988A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C25594-8496-4194-BC78-3EC0B034E5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -1232,7 +1232,7 @@
   <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,6 +1349,7 @@
       <c r="E9" t="s">
         <v>51</v>
       </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">

--- a/ProjectManagement/Ships Modules Items.xlsx
+++ b/ProjectManagement/Ships Modules Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C25594-8496-4194-BC78-3EC0B034E5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298021A-39F2-42E7-A4A7-7B1DFEC138E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>SM2</t>
+  </si>
+  <si>
+    <t>impl</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +421,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -473,6 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,9 +527,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6323CC66-AB77-4F54-8D43-381DEE6CE2B1}" name="Table14" displayName="Table14" ref="B4:N10" totalsRowShown="0">
-  <autoFilter ref="B4:N10" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6323CC66-AB77-4F54-8D43-381DEE6CE2B1}" name="Table14" displayName="Table14" ref="B4:O10" totalsRowShown="0">
+  <autoFilter ref="B4:O10" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{D9C10528-99F6-4028-85DF-03470D3CA5CC}" name="Desc" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4770588D-5EDD-4D5C-B0F0-3F6FEB342485}" name="Unique" dataDxfId="2"/>
@@ -533,6 +543,7 @@
     <tableColumn id="6" xr3:uid="{89FF0D92-EBF6-4275-B0D6-FA750D0A582F}" name="Structural"/>
     <tableColumn id="7" xr3:uid="{91A5AB42-E349-465F-9437-0446652E9F37}" name="Science "/>
     <tableColumn id="10" xr3:uid="{0A18AC80-A761-466D-AB8E-5DC1951E185C}" name="Column2" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{D95004CE-093E-4237-AA78-52A2834E3535}" name="impl"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -884,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E3E5C2-BC3A-4ABE-A5A7-23C0167AC7AC}">
-  <dimension ref="B3:N10"/>
+  <dimension ref="B3:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,14 +918,14 @@
     <col min="14" max="14" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="J3" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -954,8 +965,11 @@
       <c r="N4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
@@ -986,8 +1000,9 @@
         <v>1</v>
       </c>
       <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1021,8 +1036,9 @@
         <v>0</v>
       </c>
       <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1056,8 +1072,9 @@
         <v>2</v>
       </c>
       <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1091,7 +1108,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1126,7 +1143,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
@@ -1162,6 +1179,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="6"/>
+      <c r="O10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1231,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
